--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>736.45007</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2454.9662</v>
-      </c>
-      <c r="D2" t="n">
-        <v>195.06311</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.12218</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59.06837</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2225.29811</v>
-      </c>
-      <c r="H2" t="n">
-        <v>632.59788</v>
-      </c>
-      <c r="I2" t="n">
-        <v>814.76152</v>
-      </c>
-      <c r="J2" t="n">
-        <v>223.27573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>316.50058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35165.58</v>
-      </c>
-      <c r="M2" t="n">
-        <v>42.65105</v>
-      </c>
-      <c r="N2" t="n">
-        <v>74.86145</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1181.10848</v>
-      </c>
-      <c r="P2" t="n">
-        <v>757.5448</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>123.26121</v>
-      </c>
-      <c r="R2" t="n">
-        <v>242.37119</v>
-      </c>
-      <c r="S2" t="n">
-        <v>93.79079</v>
-      </c>
-      <c r="T2" t="n">
-        <v>94.75753</v>
-      </c>
-      <c r="U2" t="n">
-        <v>229.26491</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1005.4758</v>
-      </c>
-      <c r="W2" t="n">
-        <v>281.53632</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1155.28648</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5814.13987</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2054.36571</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1194.98906</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>83.37269999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1279.75947</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2410.44899</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1033.78662</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>665.15041</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>492.00817</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>302.40798</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1124.00492</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>171.97025</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>341.54568</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>429.84296</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>848.8255</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3646.79074</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>138.8221</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>721.87688</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2892.50325</v>
-      </c>
-      <c r="D3" t="n">
-        <v>256.06642</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.12217</v>
-      </c>
-      <c r="F3" t="n">
-        <v>92.79407</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2544.03669</v>
-      </c>
-      <c r="H3" t="n">
-        <v>536.17355</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1046.25345</v>
-      </c>
-      <c r="J3" t="n">
-        <v>262.2751</v>
-      </c>
-      <c r="K3" t="n">
-        <v>403.33969</v>
-      </c>
-      <c r="L3" t="n">
-        <v>40898.91</v>
-      </c>
-      <c r="M3" t="n">
-        <v>53.28159</v>
-      </c>
-      <c r="N3" t="n">
-        <v>87.56392</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1225.40689</v>
-      </c>
-      <c r="P3" t="n">
-        <v>886.06919</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>125.16924</v>
-      </c>
-      <c r="R3" t="n">
-        <v>307.05134</v>
-      </c>
-      <c r="S3" t="n">
-        <v>115.80063</v>
-      </c>
-      <c r="T3" t="n">
-        <v>98.15971</v>
-      </c>
-      <c r="U3" t="n">
-        <v>268.72015</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1166.98761</v>
-      </c>
-      <c r="W3" t="n">
-        <v>296.54145</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1344.89177</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6492.63931</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2850.7248</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1478.52785</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>115.99723</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1415.74661</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2571.60973</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1187.18726</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>708.32219</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>661.51069</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>411.27257</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1311.54379</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>243.48521</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>415.22095</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>539.55322</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1006.54588</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4429.42344</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>137.2464</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>754.9417999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3154.58333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>272.33453</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.12218</v>
-      </c>
-      <c r="F4" t="n">
-        <v>94.41867000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2901.04969</v>
-      </c>
-      <c r="H4" t="n">
-        <v>515.8949699999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1192.67981</v>
-      </c>
-      <c r="J4" t="n">
-        <v>296.7073</v>
-      </c>
-      <c r="K4" t="n">
-        <v>479.30954</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43524.43</v>
-      </c>
-      <c r="M4" t="n">
-        <v>55.60504</v>
-      </c>
-      <c r="N4" t="n">
-        <v>94.39652</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1269.28515</v>
-      </c>
-      <c r="P4" t="n">
-        <v>940.08926</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>118.4481</v>
-      </c>
-      <c r="R4" t="n">
-        <v>323.57141</v>
-      </c>
-      <c r="S4" t="n">
-        <v>126.69602</v>
-      </c>
-      <c r="T4" t="n">
-        <v>98.51976999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>305.64898</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1328.05231</v>
-      </c>
-      <c r="W4" t="n">
-        <v>308.57264</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1814.32421</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7028.68952</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3122.73939</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1561.60071</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>121.62038</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1355.75537</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2768.39108</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1238.35326</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>811.3828</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>692.69178</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>428.11198</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1377.79731</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>206.97562</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>499.79646</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>615.3592599999999</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1061.6518</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3824.32937</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>148.88681</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
